--- a/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_consequent_bread_non_antecedents_rules.expected.xlsx
+++ b/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_consequent_bread_non_antecedents_rules.expected.xlsx
@@ -497,7 +497,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>bread ∪ milk</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,7 +520,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bread ∪ milk</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C4" t="n">

--- a/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_consequent_bread_non_antecedents_rules.expected.xlsx
+++ b/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_consequent_bread_non_antecedents_rules.expected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>antecedents_length</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>consequents_length</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -492,6 +497,9 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -538,6 +549,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,6 +579,9 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -590,6 +607,9 @@
         <v>0.2</v>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_consequent_bread_non_antecedents_rules.expected.xlsx
+++ b/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_consequent_bread_non_antecedents_rules.expected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,14 +561,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>bread ∪ milk</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.25</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -591,14 +591,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -610,6 +610,36 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>butter</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
